--- a/tut06/output/2001ME83.xlsx
+++ b/tut06/output/2001ME83.xlsx
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -537,16 +537,16 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -581,16 +581,16 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -603,16 +603,16 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -625,16 +625,16 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -647,16 +647,16 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -735,7 +735,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -757,16 +757,16 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -779,16 +779,16 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
